--- a/process.xlsx
+++ b/process.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,13 +536,13 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2">
         <v>60</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>55</v>
       </c>
       <c r="F4">
@@ -553,14 +553,14 @@
       </c>
       <c r="J4">
         <f>C4-const!B2</f>
-        <v>27</v>
-      </c>
-      <c r="K4">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
         <v>100</v>
       </c>
       <c r="L4" s="3">
         <f>E4*C4/J4</f>
-        <v>61.111111111111114</v>
+        <v>60.15625</v>
       </c>
       <c r="M4">
         <f>F4</f>
@@ -574,17 +574,17 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:F6" si="0">J4</f>
-        <v>27</v>
-      </c>
-      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>61.111111111111114</v>
+        <v>60.15625</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -598,15 +598,15 @@
       </c>
       <c r="J5" s="2">
         <f>C5*(1-(const!$B$3*I5/60))</f>
-        <v>26.99325</v>
-      </c>
-      <c r="K5">
+        <v>31.992000000000001</v>
+      </c>
+      <c r="K5" s="2">
         <f>D5-(const!B4*I5/60)</f>
         <v>85</v>
       </c>
       <c r="L5" s="3">
         <f>E5*C5/J5</f>
-        <v>61.126392709288432</v>
+        <v>60.171292823205803</v>
       </c>
       <c r="M5">
         <f>F5</f>
@@ -620,17 +620,17 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>26.99325</v>
-      </c>
-      <c r="D6">
+        <v>31.992000000000001</v>
+      </c>
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>61.126392709288432</v>
+        <v>60.171292823205803</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -639,9 +639,14 @@
       <c r="H6" t="s">
         <v>12</v>
       </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -651,17 +656,17 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f>(C6-const!$B$6)/2</f>
-        <v>11.996625</v>
-      </c>
-      <c r="D8">
+        <v>14.496</v>
+      </c>
+      <c r="D8" s="2">
         <f>D6</f>
         <v>85</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f>E6</f>
-        <v>61.126392709288432</v>
+        <v>60.171292823205803</v>
       </c>
       <c r="F8">
         <f>F6</f>
@@ -669,15 +674,15 @@
       </c>
       <c r="J8" s="2">
         <f>C8</f>
-        <v>11.996625</v>
-      </c>
-      <c r="K8">
+        <v>14.496</v>
+      </c>
+      <c r="K8" s="2">
         <f>D8</f>
         <v>85</v>
       </c>
       <c r="L8" s="3">
         <f>E8</f>
-        <v>61.126392709288432</v>
+        <v>60.171292823205803</v>
       </c>
       <c r="M8">
         <f>F8</f>
@@ -691,17 +696,17 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f t="shared" ref="C9:F13" si="1">J8</f>
-        <v>11.996625</v>
-      </c>
-      <c r="D9">
+        <v>14.496</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>61.126392709288432</v>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>60.171292823205803</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -715,19 +720,19 @@
       </c>
       <c r="I9">
         <f>20-C9</f>
-        <v>8.0033750000000001</v>
+        <v>5.5039999999999996</v>
       </c>
       <c r="J9" s="2">
         <f>C9+I9</f>
         <v>20</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <f>(C9*D9*const!$B$5+I9*const!$B$5*G9)/(C9*const!$B$5+I9*const!$B$5)</f>
-        <v>52.986500000000014</v>
+        <v>62.984000000000002</v>
       </c>
       <c r="L9" s="3">
         <f>E9*C9/J9</f>
-        <v>36.665520546803364</v>
+        <v>43.612153038259564</v>
       </c>
       <c r="M9">
         <f>F9</f>
@@ -741,17 +746,17 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>52.986500000000014</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="1"/>
-        <v>36.665520546803364</v>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>62.984000000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>43.612153038259564</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -765,15 +770,15 @@
       </c>
       <c r="J10" s="2">
         <f>C10*(1-(const!$B$3*(D10-I10)))</f>
-        <v>19.670134999999998</v>
-      </c>
-      <c r="K10">
+        <v>19.570160000000001</v>
+      </c>
+      <c r="K10" s="2">
         <f>I10</f>
         <v>20</v>
       </c>
       <c r="L10" s="3">
         <f>E10*C10/J10</f>
-        <v>37.280395428707898</v>
+        <v>44.570052608930702</v>
       </c>
       <c r="M10">
         <f>F10</f>
@@ -787,17 +792,17 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>19.670134999999998</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>37.280395428707898</v>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>19.570160000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>44.570052608930702</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -811,9 +816,9 @@
       </c>
       <c r="J11" s="2">
         <f>C11</f>
-        <v>19.670134999999998</v>
-      </c>
-      <c r="K11">
+        <v>19.570160000000001</v>
+      </c>
+      <c r="K11" s="2">
         <f>D11</f>
         <v>20</v>
       </c>
@@ -823,7 +828,7 @@
       </c>
       <c r="M11" s="2">
         <f>(E11-L11)/L11*const!$B$7</f>
-        <v>3.6258753417902905</v>
+        <v>4.5947538277692708</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -833,21 +838,21 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>19.670134999999998</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>19.570160000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>3.6258753417902905</v>
+        <v>4.5947538277692708</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
@@ -857,19 +862,19 @@
       </c>
       <c r="J12" s="2">
         <f>C12*((1-const!B3*(D12-I12)))</f>
-        <v>19.493103784999999</v>
-      </c>
-      <c r="K12">
+        <v>19.394028560000002</v>
+      </c>
+      <c r="K12" s="2">
         <f>I12</f>
         <v>2</v>
       </c>
       <c r="L12" s="3">
         <f>E12*C12/J12</f>
-        <v>10.090817356205854</v>
+        <v>10.090817356205852</v>
       </c>
       <c r="M12" s="2">
         <f>F12*(1+(L12-E12)/E12)</f>
-        <v>3.6588045830376297</v>
+        <v>4.6364821672747434</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -879,43 +884,47 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>19.493103784999999</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>19.394028560000002</v>
+      </c>
+      <c r="D13" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E13" s="3">
-        <f t="shared" si="1"/>
-        <v>10.090817356205854</v>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>10.090817356205852</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>3.6588045830376297</v>
+        <v>4.6364821672747434</v>
       </c>
       <c r="H13" t="s">
         <v>31</v>
       </c>
       <c r="J13" s="2">
         <f>C13-const!$B$8</f>
-        <v>16.493103784999999</v>
-      </c>
-      <c r="K13">
+        <v>16.394028560000002</v>
+      </c>
+      <c r="K13" s="2">
         <f>D13</f>
         <v>2</v>
       </c>
       <c r="L13" s="3">
         <f>E13</f>
-        <v>10.090817356205854</v>
+        <v>10.090817356205852</v>
       </c>
       <c r="M13" s="2">
         <f>F13</f>
-        <v>3.6588045830376297</v>
+        <v>4.6364821672747434</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -925,17 +934,17 @@
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f>(C6-const!$B$6)/2</f>
-        <v>11.996625</v>
-      </c>
-      <c r="D15">
+        <v>14.496</v>
+      </c>
+      <c r="D15" s="2">
         <f>D6</f>
         <v>85</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f>E6</f>
-        <v>61.126392709288432</v>
+        <v>60.171292823205803</v>
       </c>
       <c r="F15">
         <f>F6</f>
@@ -943,15 +952,15 @@
       </c>
       <c r="J15" s="2">
         <f>C15</f>
-        <v>11.996625</v>
-      </c>
-      <c r="K15">
+        <v>14.496</v>
+      </c>
+      <c r="K15" s="2">
         <f>D15</f>
         <v>85</v>
       </c>
       <c r="L15" s="3">
         <f>E15</f>
-        <v>61.126392709288432</v>
+        <v>60.171292823205803</v>
       </c>
       <c r="M15">
         <f>F15</f>
@@ -965,17 +974,17 @@
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f t="shared" ref="C16:F20" si="2">J15</f>
-        <v>11.996625</v>
-      </c>
-      <c r="D16">
+        <v>14.496</v>
+      </c>
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>61.126392709288432</v>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>60.171292823205803</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
@@ -989,19 +998,19 @@
       </c>
       <c r="I16">
         <f>15-C16</f>
-        <v>3.0033750000000001</v>
+        <v>0.50399999999999956</v>
       </c>
       <c r="J16">
         <f>C16+I16</f>
         <v>15</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <f>(C16*D16*const!$B$5+I16*const!$B$5*G16)/(C16*const!$B$5+I16*const!$B$5)</f>
-        <v>68.981999999999999</v>
+        <v>82.311999999999998</v>
       </c>
       <c r="L16" s="3">
         <f>E16*C16/J16</f>
-        <v>48.887360729071155</v>
+        <v>58.14953738434609</v>
       </c>
       <c r="M16">
         <f>F16</f>
@@ -1015,17 +1024,17 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>68.981999999999999</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="2"/>
-        <v>48.887360729071155</v>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>82.311999999999998</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>58.14953738434609</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
@@ -1041,13 +1050,13 @@
         <f>C17*(1-(const!$B$3*I17))</f>
         <v>14.85</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <f>I17</f>
         <v>20</v>
       </c>
       <c r="L17" s="3">
         <f>E17*C17/J17</f>
-        <v>49.381172453607228</v>
+        <v>58.736906448834432</v>
       </c>
       <c r="M17">
         <f>F17</f>
@@ -1061,17 +1070,17 @@
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <f t="shared" si="2"/>
         <v>14.85</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="2"/>
-        <v>49.381172453607228</v>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>58.736906448834432</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
@@ -1087,7 +1096,7 @@
         <f>C18</f>
         <v>14.85</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <f>D18</f>
         <v>20</v>
       </c>
@@ -1097,7 +1106,7 @@
       </c>
       <c r="M18" s="2">
         <f>(E18-L18)/L18*const!$B$7</f>
-        <v>5.2342064653528597</v>
+        <v>6.4776900976298926</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1107,21 +1116,21 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <f t="shared" si="2"/>
         <v>14.85</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>5.2342064653528597</v>
+        <v>6.4776900976298926</v>
       </c>
       <c r="H19" t="s">
         <v>33</v>
@@ -1133,7 +1142,7 @@
         <f>C19*((1-const!B10*(D19-I19)))</f>
         <v>14.85</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <f>I19</f>
         <v>2</v>
       </c>
@@ -1143,7 +1152,7 @@
       </c>
       <c r="M19" s="2">
         <f>F19*(1+(L19-E19)/E19)</f>
-        <v>5.2342064653528597</v>
+        <v>6.4776900976298926</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1153,21 +1162,21 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <f t="shared" si="2"/>
         <v>14.85</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>5.2342064653528597</v>
+        <v>6.4776900976298926</v>
       </c>
       <c r="H20" t="s">
         <v>31</v>
@@ -1176,7 +1185,7 @@
         <f>C20-const!$B$8</f>
         <v>11.85</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <f>D20</f>
         <v>2</v>
       </c>
@@ -1186,7 +1195,7 @@
       </c>
       <c r="M20" s="2">
         <f>F20</f>
-        <v>5.2342064653528597</v>
+        <v>6.4776900976298926</v>
       </c>
     </row>
   </sheetData>
